--- a/Data/DataNotYetUploadedToEDI/Raw_GHG/2020/Raw/Headspace Preparation Conditions Summer 2020.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Raw_GHG/2020/Raw/Headspace Preparation Conditions Summer 2020.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -775,6 +775,39 @@
         <v>30.283000000000001</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B39">
+        <v>20.6</v>
+      </c>
+      <c r="C39">
+        <v>30.454999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B40">
+        <v>20.8</v>
+      </c>
+      <c r="C40">
+        <v>30.064</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B41">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C41">
+        <v>29.957999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
